--- a/Vinasa/Content/Files/MauDongPhi.xlsx
+++ b/Vinasa/Content/Files/MauDongPhi.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DC874B-B993-4629-9A7D-EFFCFC0B6AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A71EDE-300B-432A-BBF1-562FB621098B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{892C05B1-ADAF-2E46-8D84-C3AE018D9302}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E7D69EFB-3D21-42E6-B5B6-1781657AD360}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hội phí" sheetId="1" r:id="rId1"/>
+    <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,57 +37,47 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
+    <t xml:space="preserve">Mã số thuế </t>
+  </si>
+  <si>
+    <t>Tên Công ty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người nhận phiếu thu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Điện thoại </t>
+  </si>
+  <si>
+    <t>Ngày chuyển tiền</t>
+  </si>
+  <si>
+    <t>Ngày gửi phiếu thu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghi chú </t>
+  </si>
+  <si>
+    <t>Số tiền đóng</t>
+  </si>
+  <si>
     <t>STT</t>
-  </si>
-  <si>
-    <t>Tên Công ty</t>
-  </si>
-  <si>
-    <t>Ngày chuyển tiền</t>
-  </si>
-  <si>
-    <t>Ngày gửi phiếu thu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mã số thuế </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Người nhận phiếu thu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Điện thoại </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghi chú </t>
-  </si>
-  <si>
-    <t>Số tiền đóng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -97,18 +88,10 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="163"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -138,36 +121,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Dấu phẩy [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="Tiền tệ" xfId="2" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -478,92 +444,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DD1C6C-DB5B-4A4C-9103-79D64D3522AC}">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F675F848-DDA6-41ED-85E1-4B4A0DEA1D6C}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.69921875" customWidth="1"/>
-    <col min="4" max="5" width="29.296875" customWidth="1"/>
-    <col min="6" max="7" width="19.796875" customWidth="1"/>
-    <col min="8" max="8" width="20.19921875" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="22.19921875" customWidth="1"/>
-    <col min="11" max="11" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="17.5" customWidth="1"/>
-    <col min="14" max="14" width="22.296875" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
     </row>
-    <row r="2" spans="1:15" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="9"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Vinasa/Content/Files/MauDongPhi.xlsx
+++ b/Vinasa/Content/Files/MauDongPhi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK3_NH21-22\SEP\fixcode\Vinasa\Vinasa\Content\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A71EDE-300B-432A-BBF1-562FB621098B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92874B75-CBCE-4CEE-B9FE-F638BAADC790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E7D69EFB-3D21-42E6-B5B6-1781657AD360}"/>
   </bookViews>
@@ -46,15 +46,6 @@
     <t xml:space="preserve">Người nhận phiếu thu </t>
   </si>
   <si>
-    <t xml:space="preserve">Điện thoại </t>
-  </si>
-  <si>
-    <t>Ngày chuyển tiền</t>
-  </si>
-  <si>
-    <t>Ngày gửi phiếu thu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ghi chú </t>
   </si>
   <si>
@@ -62,6 +53,17 @@
   </si>
   <si>
     <t>STT</t>
+  </si>
+  <si>
+    <t>Điện thoại (10 số)</t>
+  </si>
+  <si>
+    <t>Ngày chuyển tiền
+(Theo định dạng mm/dd/yyyy)</t>
+  </si>
+  <si>
+    <t>Ngày gửi phiếu thu
+(Theo định dạng mm/dd/yyyy)</t>
   </si>
 </sst>
 </file>
@@ -124,13 +126,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -448,43 +457,48 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -492,8 +506,8 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Vinasa/Content/Files/MauDongPhi.xlsx
+++ b/Vinasa/Content/Files/MauDongPhi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK3_NH21-22\SEP\fixcode\Vinasa\Vinasa\Content\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK3_NH21-22\SEP\Vinasa\Vinasa\Content\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92874B75-CBCE-4CEE-B9FE-F638BAADC790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D5DED3-7CBE-4433-B78B-C5EBF2BF4AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E7D69EFB-3D21-42E6-B5B6-1781657AD360}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Mã số thuế </t>
   </si>
@@ -64,13 +64,19 @@
   <si>
     <t>Ngày gửi phiếu thu
 (Theo định dạng mm/dd/yyyy)</t>
+  </si>
+  <si>
+    <t>Địa chỉ ghi trên Phiếu thu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Địa chỉ gửi phiếu thu </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +105,13 @@
       <family val="1"/>
       <charset val="163"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -126,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -138,6 +151,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,25 +470,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F675F848-DDA6-41ED-85E1-4B4A0DEA1D6C}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -482,32 +500,40 @@
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
